--- a/5_analisis_de_resultados/output/df_diferencias_significativas.xlsx
+++ b/5_analisis_de_resultados/output/df_diferencias_significativas.xlsx
@@ -526,17 +526,17 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.176711771262973</v>
+        <v>-2.428571428571217</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1347468885034425</v>
+        <v>0.9809641724976295</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.17671177 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.42857143 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4.733336647262603</v>
+        <v>2.903125846228806</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005344395024330007</v>
+        <v>0.008753025908423185</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08016592536495011</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.73333665 y un valor p 0.08016593 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.90312585 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>36.50175920846029</v>
+        <v>30.07090461166152</v>
       </c>
       <c r="J4" t="n">
-        <v>2.153056444803301e-11</v>
+        <v>1.215977922460469e-10</v>
       </c>
       <c r="K4" t="n">
-        <v>4.693663049671197e-09</v>
+        <v>2.662991650188428e-08</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 36.50175921 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 30.07090461 y un valor p 0.00000003 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13.91736983382743</v>
+        <v>12.64224226296436</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07921545322652e-07</v>
+        <v>2.466357246268662e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>2.212391679114365e-05</v>
+        <v>5.105359499776131e-05</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 13.91736983 y un valor p 0.00002212 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 12.64224226 y un valor p 0.00005105 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -726,17 +726,17 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.176711771262973</v>
+        <v>-2.818485254172723</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1347468885034425</v>
+        <v>0.9899516751398304</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.17671177 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.81848525 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4.733336647262603</v>
+        <v>2.903125846228806</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005344395024330007</v>
+        <v>0.008753025908423185</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08016592536495011</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.73333665 y un valor p 0.08016593 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.90312585 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>36.50175920846029</v>
+        <v>30.07090461166152</v>
       </c>
       <c r="J8" t="n">
-        <v>2.153056444803301e-11</v>
+        <v>1.215977922460469e-10</v>
       </c>
       <c r="K8" t="n">
-        <v>4.693663049671197e-09</v>
+        <v>2.662991650188428e-08</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 36.50175921 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 30.07090461 y un valor p 0.00000003 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>13.91736983382743</v>
+        <v>12.64224226296436</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07921545322652e-07</v>
+        <v>2.466357246268662e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>2.212391679114365e-05</v>
+        <v>5.105359499776131e-05</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 13.91736983 y un valor p 0.00002212 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 12.64224226 y un valor p 0.00005105 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-2.449503090343284</v>
+        <v>-2.905504860732146</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9816066537995841</v>
+        <v>0.99128080900122</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.44950309 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.90550486 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.3611513984903781</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.3631593300926512</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.3611514 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1026,17 +1026,17 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5.836200838221324</v>
+        <v>3.711004960090307</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001239950914936936</v>
+        <v>0.002418727447765977</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01996320973048467</v>
+        <v>0.3531342073738327</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 5.83620084 y un valor p 0.01996321 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 3.71100496 y un valor p 0.35313421 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5.169862458603289</v>
+        <v>5.842204104622579</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002936360777950095</v>
+        <v>0.0001230698117635959</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04580722813602148</v>
+        <v>0.02018344912922972</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 5.16986246 y un valor p 0.04580723 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 5.8422041 y un valor p 0.02018345 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -1126,17 +1126,17 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8.948675645591096e-13</v>
+        <v>0.3611637196144025</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4999999999996527</v>
+        <v>0.3631548809494864</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.36116372 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-1.000032693840968</v>
+        <v>-1.000032693841597</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8282892929723428</v>
+        <v>0.8282892929724868</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1226,17 +1226,17 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3.27958174812362</v>
+        <v>3.354092094493934</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00476781856077252</v>
+        <v>0.004234141630339196</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6036879443011351</v>
+        <v>0.5927705282207437</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 3.27958175 y un valor p 0.60368794 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 3.35409209 y un valor p 0.59277053 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4.129499194377939</v>
+        <v>3.4979887963289</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001280699640270913</v>
+        <v>0.003372410693499176</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1767365503573859</v>
+        <v>0.4822547291703821</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.12949919 y un valor p 0.17673655 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.4979888 y un valor p 0.48225473 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -1326,17 +1326,17 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-0.3283818946294906</v>
+        <v>-0.6087951965659452</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6249328698867604</v>
+        <v>0.7211441442964974</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.32838189 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.6087952 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4.319201100544557</v>
+        <v>4.623773986177539</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0009677182278197374</v>
+        <v>0.0006238241027603018</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1354805518947632</v>
+        <v>0.09544508772232618</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.3192011 y un valor p 0.13548055 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.62377399 y un valor p 0.09544509 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1426,17 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18.06446314985786</v>
+        <v>7.811545281738344</v>
       </c>
       <c r="J20" t="n">
-        <v>1.111909796818616e-08</v>
+        <v>1.338253763228874e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.323891475350908e-06</v>
+        <v>0.002422239311444263</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 18.06446315 y un valor p 0.00000232 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.81154528 y un valor p 0.00242224 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10.38419905249401</v>
+        <v>9.399763947786274</v>
       </c>
       <c r="J21" t="n">
-        <v>1.306114043971633e-06</v>
+        <v>2.987670915544874e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002390188700468089</v>
+        <v>0.0005825958285312503</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 10.38419905 y un valor p 0.00023902 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 9.39976395 y un valor p 0.0005826 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1526,17 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-0.2132265495014749</v>
+        <v>-0.3332817979394176</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5820489983848265</v>
+        <v>0.6267226914413935</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.21322655 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.3332818 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3.883054607910593</v>
+        <v>4.348318650399215</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001857032119480636</v>
+        <v>0.0009274000424561023</v>
       </c>
       <c r="K23" t="n">
-        <v>0.251799597020836</v>
+        <v>0.1396916526802414</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.88305461 y un valor p 0.2517996 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.34831865 y un valor p 0.13969165 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -1626,17 +1626,17 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11.29835990126156</v>
+        <v>8.826605646359679</v>
       </c>
       <c r="J24" t="n">
-        <v>6.420983567324291e-07</v>
+        <v>5.004055521412885e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001207144910656967</v>
+        <v>0.0009457664935470352</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 11.2983599 y un valor p 0.00012071 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.82660565 y un valor p 0.00094577 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7.888312969631239</v>
+        <v>7.549659816176969</v>
       </c>
       <c r="J25" t="n">
-        <v>1.238087011188136e-05</v>
+        <v>1.752858165944911e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002203794879914882</v>
+        <v>0.003137616117041391</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.88831297 y un valor p 0.00220379 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.54965982 y un valor p 0.00313762 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -1726,17 +1726,17 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.8017837257370031</v>
+        <v>0.2873633999254813</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2216659250849043</v>
+        <v>0.390170416424521</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.80178373 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.2873634 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11.69918218056415</v>
+        <v>9.487035350683639</v>
       </c>
       <c r="J27" t="n">
-        <v>4.777998366670436e-07</v>
+        <v>2.768376354219614e-06</v>
       </c>
       <c r="K27" t="n">
-        <v>9.172673839297142e-05</v>
+        <v>0.000545370141781264</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 11.69918218 y un valor p 0.00009173 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 9.48703535 y un valor p 0.00054537 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -1826,17 +1826,17 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6.285943333593318</v>
+        <v>8.059637722027395</v>
       </c>
       <c r="J28" t="n">
-        <v>7.167976709375244e-05</v>
+        <v>1.04292896639371e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0117554818033754</v>
+        <v>0.001918989298164427</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6.28594333 y un valor p 0.01175548 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.05963772 y un valor p 0.00191899 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4.60180984150997</v>
+        <v>3.851726478598386</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00064360263048605</v>
+        <v>0.001948008800691784</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0926787787899912</v>
+        <v>0.2863572937016923</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.60180984 y un valor p 0.09267878 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.85172648 y un valor p 0.28635729 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -1926,17 +1926,17 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>-1.341590254737604</v>
+        <v>-1.405523506741314</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8937021735405953</v>
+        <v>0.9032831652604556</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -1.34159025 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -1.40552351 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.293396000390669</v>
+        <v>2.584904845370351</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02375498740992834</v>
+        <v>0.01472932471995141</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.293396 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.58490485 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -2026,17 +2026,17 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>9.737423802654352</v>
+        <v>6.194808334459044</v>
       </c>
       <c r="J32" t="n">
-        <v>2.231681792497632e-06</v>
+        <v>7.992967007188933e-05</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0004061660862345691</v>
+        <v>0.01334825490200552</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 9.7374238 y un valor p 0.00040617 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6.19480833 y un valor p 0.01334825 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2076,17 +2076,17 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6.219729994103384</v>
+        <v>4.706800557798617</v>
       </c>
       <c r="J33" t="n">
-        <v>7.757552528634295e-05</v>
+        <v>0.0005547482624224538</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0126448106216739</v>
+        <v>0.08598598067548033</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6.21972999 y un valor p 0.01264481 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.70680056 y un valor p 0.08598598 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -2226,17 +2226,17 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.909090909090824</v>
+        <v>2.333328488323219</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0442951976557392</v>
+        <v>0.02225194520595764</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.90909091 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.33332849 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2276,17 +2276,17 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2.236079674060282</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02608812309207304</v>
+        <v>0.125</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 2.23607967 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2326,17 +2326,17 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>-0.2307210155088033</v>
       </c>
       <c r="J38" t="n">
-        <v>0.15625</v>
+        <v>0.5886545641055391</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 12 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.23072102 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.583842995657421</v>
+        <v>0.5212073691133102</v>
       </c>
       <c r="J39" t="n">
-        <v>0.07384487142142705</v>
+        <v>0.3074015126133166</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 1.583843 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.52120737 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2426,17 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>33.85520171806873</v>
+        <v>23.24741379290485</v>
       </c>
       <c r="J40" t="n">
-        <v>4.220026856216163e-11</v>
+        <v>1.1998377531724e-09</v>
       </c>
       <c r="K40" t="n">
-        <v>8.946456935178266e-09</v>
+        <v>2.555654414257212e-07</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 33.85520172 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 23.24741379 y un valor p 0.00000026 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.9370593836806346</v>
+        <v>0.9370593836801495</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1865952904009159</v>
+        <v>0.186595290401034</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1.963961012123931</v>
+        <v>1.963961012124182</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04056309442292025</v>
+        <v>0.04056309442290394</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2626,17 +2626,17 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.909104173566116</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04429425741564005</v>
+        <v>0.125</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.90910417 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -2726,17 +2726,17 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.6179936316563003</v>
+        <v>-4.662523103066275</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2759474838889315</v>
+        <v>0.9994094976650428</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.61799363 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -4.6625231 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3.501565385544901</v>
+        <v>2.20805755003463</v>
       </c>
       <c r="J47" t="n">
-        <v>0.003353490837350424</v>
+        <v>0.02730902081957209</v>
       </c>
       <c r="K47" t="n">
-        <v>0.442660790530256</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.50156539 y un valor p 0.44266079 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.20805755 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -2826,17 +2826,17 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>36.21543992562601</v>
+        <v>27.91155755387872</v>
       </c>
       <c r="J48" t="n">
-        <v>2.310183361240374e-11</v>
+        <v>2.362519573338017e-10</v>
       </c>
       <c r="K48" t="n">
-        <v>4.966894226666803e-09</v>
+        <v>5.103042278410116e-08</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 36.21543993 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 27.91155755 y un valor p 0.00000005 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13.09288528403927</v>
+        <v>10.52596648609533</v>
       </c>
       <c r="J49" t="n">
-        <v>1.826327560260072e-07</v>
+        <v>1.165869668912854e-06</v>
       </c>
       <c r="K49" t="n">
-        <v>3.597865293712342e-05</v>
+        <v>0.0002331739337825709</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 13.09288528 y un valor p 0.00003598 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 10.52596649 y un valor p 0.00023317 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -2926,17 +2926,17 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3.541069049321</v>
+        <v>1.792149664040461</v>
       </c>
       <c r="J50" t="n">
-        <v>0.003151764132966225</v>
+        <v>0.05335386049039745</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4223363938174741</v>
+        <v>1</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 3.54106905 y un valor p 0.42233639 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.79214966 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2976,17 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4.683658153727</v>
+        <v>3.511931922330046</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0005731366850118559</v>
+        <v>0.003299278126511247</v>
       </c>
       <c r="K51" t="n">
-        <v>0.08394798042875341</v>
+        <v>0.4783953283441308</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.68365815 y un valor p 0.08394798 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.51193192 y un valor p 0.47839533 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3026,17 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5.59283893619892</v>
+        <v>6.303639062206353</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0001686761586118064</v>
+        <v>7.018803471526524e-05</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02665083306066541</v>
+        <v>0.01186177786687983</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 5.59283894 y un valor p 0.02665083 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6.30363906 y un valor p 0.01186178 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1.952151898522184</v>
+        <v>1.033802838644547</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04134023230119221</v>
+        <v>0.1641035162928748</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 1.9521519 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 1.03380284 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -3126,17 +3126,17 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>-3.160106106465439</v>
+        <v>-3.375717000371049</v>
       </c>
       <c r="J54" t="n">
-        <v>0.994225876155894</v>
+        <v>0.9959088026416487</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -3.16010611 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -3.375717 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -3176,17 +3176,17 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.2686295605112681</v>
+        <v>0.478824852718884</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3971354739546083</v>
+        <v>0.3217410088895704</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.26862956 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.47882485 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3226,17 +3226,17 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7.013756350232686</v>
+        <v>4.74383719645901</v>
       </c>
       <c r="J56" t="n">
-        <v>3.114743052228587e-05</v>
+        <v>0.0005266249065557974</v>
       </c>
       <c r="K56" t="n">
-        <v>0.005326210619310883</v>
+        <v>0.0821534854227044</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.01375635 y un valor p 0.00532621 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 4.7438372 y un valor p 0.08215349 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -3276,17 +3276,17 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6.569593790055422</v>
+        <v>7.677534698312814</v>
       </c>
       <c r="J57" t="n">
-        <v>5.140819330947999e-05</v>
+        <v>1.535095435191017e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>0.008687984669302118</v>
+        <v>0.002763171783343831</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6.56959379 y un valor p 0.00868798 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.6775347 y un valor p 0.00276317 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3326,17 +3326,17 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>-0.001127428913875408</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5004374816728769</v>
+        <v>0.5</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.00112743 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 2 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>-0.5570860145311556</v>
+        <v>-0.5570860145311555</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7044743841081977</v>
+        <v>0.7044743841081975</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3426,17 +3426,17 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>2.71567053076245</v>
       </c>
       <c r="J60" t="n">
-        <v>0.125</v>
+        <v>0.01188786671645053</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.71567053 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3476,17 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 10 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -3526,17 +3526,17 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>-0.8548895028386633</v>
+        <v>-0.5540216075317009</v>
       </c>
       <c r="J62" t="n">
-        <v>0.79260536232273</v>
+        <v>0.7034697717923031</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.8548895 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.55402161 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4.925693997699079</v>
+        <v>5.130446654149456</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0004090856656425578</v>
+        <v>0.0003096022865736891</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0629991925089539</v>
+        <v>0.05015557042493764</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.925694 y un valor p 0.06299919 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 5.13044665 y un valor p 0.05015557 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -3626,17 +3626,17 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>18.61540848632654</v>
+        <v>8.981475628221499</v>
       </c>
       <c r="J64" t="n">
-        <v>8.539373003571075e-09</v>
+        <v>4.341576917118684e-06</v>
       </c>
       <c r="K64" t="n">
-        <v>1.793268330749926e-06</v>
+        <v>0.0008248996142525499</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 18.61540849 y un valor p 0.00000179 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.98147563 y un valor p 0.0008249 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -3676,17 +3676,17 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>6.79340242287401</v>
+        <v>7.002345881698966</v>
       </c>
       <c r="J65" t="n">
-        <v>3.982211567664198e-05</v>
+        <v>3.154191712060639e-05</v>
       </c>
       <c r="K65" t="n">
-        <v>0.006769759665029137</v>
+        <v>0.005456751661864905</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6.79340242 y un valor p 0.00676976 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.00234588 y un valor p 0.00545675 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -3726,17 +3726,17 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.219909233081479</v>
+        <v>-0.5248095799562262</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4154244157640555</v>
+        <v>0.6938019291057274</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.21990923 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.52480958 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -3776,17 +3776,17 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2.937196574305754</v>
+        <v>3.229822684293988</v>
       </c>
       <c r="J67" t="n">
-        <v>0.008281025364456155</v>
+        <v>0.00516279096106444</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0.7021395707047638</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.93719657 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.22982268 y un valor p 0.70213957 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -3826,17 +3826,17 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.9850933428320013</v>
+        <v>1.472619426511902</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1751592531360839</v>
+        <v>0.08747089323978416</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 0.98509334 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.47261943 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -3876,17 +3876,17 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7.985948043871828</v>
+        <v>9.26527388381561</v>
       </c>
       <c r="J69" t="n">
-        <v>1.122392325152869e-05</v>
+        <v>3.364015266921459e-06</v>
       </c>
       <c r="K69" t="n">
-        <v>0.002020306185275164</v>
+        <v>0.0006526189617827631</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.98594804 y un valor p 0.00202031 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 9.26527388 y un valor p 0.00065262 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -3926,17 +3926,17 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>-0.958063409677539</v>
+        <v>-1.582159308709544</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8184708510179795</v>
+        <v>0.9259638161547825</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.95806341 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -1.58215931 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>12.55203645836821</v>
+        <v>9.05859697845138</v>
       </c>
       <c r="J71" t="n">
-        <v>2.622276545087386e-07</v>
+        <v>4.048171392114721e-06</v>
       </c>
       <c r="K71" t="n">
-        <v>5.113439262920403e-05</v>
+        <v>0.0007772489072860265</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 12.55203646 y un valor p 0.00005113 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 9.05859698 y un valor p 0.00077725 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -4026,17 +4026,17 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7.397226169000942</v>
+        <v>6.414042103144499</v>
       </c>
       <c r="J72" t="n">
-        <v>2.05774643868839e-05</v>
+        <v>6.161190392216709e-05</v>
       </c>
       <c r="K72" t="n">
-        <v>0.003601056267704683</v>
+        <v>0.01047402366676841</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.39722617 y un valor p 0.00360106 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6.4140421 y un valor p 0.01047402 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -4076,17 +4076,17 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4.967233182402001</v>
+        <v>4.009909840530552</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0003864132738457486</v>
+        <v>0.0015321460310675</v>
       </c>
       <c r="K73" t="n">
-        <v>0.05989405744609103</v>
+        <v>0.2282897586290574</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.96723318 y un valor p 0.05989406 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.00990984 y un valor p 0.22828976 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -4126,17 +4126,17 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>-1.303327762341028</v>
+        <v>-2.266827454666203</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8875919035724691</v>
+        <v>0.9751901237349592</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -1.30332776 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.26682745 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -4176,17 +4176,17 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2.781064292195451</v>
+        <v>3.051292686863399</v>
       </c>
       <c r="J75" t="n">
-        <v>0.01068178531233427</v>
+        <v>0.006882045747806576</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0.9290761759538878</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.78106429 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.05129269 y un valor p 0.92907618 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -4226,17 +4226,17 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>12.03536875214498</v>
+        <v>8.73373618791722</v>
       </c>
       <c r="J76" t="n">
-        <v>3.754610536118995e-07</v>
+        <v>5.454181456830429e-06</v>
       </c>
       <c r="K76" t="n">
-        <v>7.283944440070851e-05</v>
+        <v>0.00101993193242729</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 12.03536875 y un valor p 0.00007284 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.73373619 y un valor p 0.00101993 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4276,17 +4276,17 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6.519386497217841</v>
+        <v>4.812430114199454</v>
       </c>
       <c r="J77" t="n">
-        <v>5.448434579162196e-05</v>
+        <v>0.0004785028034291159</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009098885747200866</v>
+        <v>0.07656044854865854</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6.5193865 y un valor p 0.00909889 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.81243011 y un valor p 0.07656045 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4476,17 +4476,17 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2.448865175664536</v>
+        <v>6</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01841260398834212</v>
+        <v>0.125</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 2.44886518 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -4526,17 +4526,17 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 5 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4576,17 +4576,17 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>28</v>
+        <v>0.5919072363706058</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0078125</v>
+        <v>0.2842407914936427</v>
       </c>
       <c r="K83" t="n">
-        <v>0.953125</v>
+        <v>1</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 28 y un valor p 0.953125 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.59190724 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -4626,17 +4626,17 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>36.7464776300483</v>
+        <v>22.80929406672988</v>
       </c>
       <c r="J84" t="n">
-        <v>2.02813286686446e-11</v>
+        <v>1.420231392640718e-09</v>
       </c>
       <c r="K84" t="n">
-        <v>4.441610978433167e-09</v>
+        <v>3.010890552398322e-07</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 36.74647763 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 22.80929407 y un valor p 0.0000003 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.8183403421713643</v>
+        <v>0.8183403421713448</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2171471303820953</v>
+        <v>0.2171471303821006</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4826,17 +4826,17 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2.481990784129372</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0174386671704067</v>
+        <v>0.125</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.48199078 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -4926,17 +4926,17 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3.538642397294664</v>
+        <v>1.792875985201958</v>
       </c>
       <c r="J90" t="n">
-        <v>0.003163781591901431</v>
+        <v>0.05329261387436923</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4223363938174741</v>
+        <v>1</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 3.5386424 y un valor p 0.42233639 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.79287599 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -4976,17 +4976,17 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>4.672639580299739</v>
+        <v>3.50334903581843</v>
       </c>
       <c r="J91" t="n">
-        <v>0.00058212070320841</v>
+        <v>0.003344097044719207</v>
       </c>
       <c r="K91" t="n">
-        <v>0.08440750196521946</v>
+        <v>0.4815499744395658</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.67263958 y un valor p 0.0844075 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.50334904 y un valor p 0.48154997 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -5026,17 +5026,17 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>5.529560223837656</v>
+        <v>6.220184437994439</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0001829704072127363</v>
+        <v>7.753330471571679e-05</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02872635393239961</v>
+        <v>0.01302559519224042</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 5.52956022 y un valor p 0.02872635 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6.22018444 y un valor p 0.0130256 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -5076,17 +5076,17 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1.941144924216748</v>
+        <v>1.023447903478792</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04207728412960848</v>
+        <v>0.1664084473140028</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 1.94114492 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 1.0234479 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -5126,17 +5126,17 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.6208373153755186</v>
+        <v>-5.304483619392055</v>
       </c>
       <c r="J94" t="n">
-        <v>0.275051913664064</v>
+        <v>0.999754530341776</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.62083732 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -5.30448362 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -5176,17 +5176,17 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3.493486233569338</v>
+        <v>2.202176063835621</v>
       </c>
       <c r="J95" t="n">
-        <v>0.003396387908929661</v>
+        <v>0.02757226440312001</v>
       </c>
       <c r="K95" t="n">
-        <v>0.4449268160697855</v>
+        <v>1</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.49348623 y un valor p 0.44492682 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.20217606 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -5226,17 +5226,17 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>35.22861249137534</v>
+        <v>27.46152157524052</v>
       </c>
       <c r="J96" t="n">
-        <v>2.957622140769348e-11</v>
+        <v>2.730487730735256e-10</v>
       </c>
       <c r="K96" t="n">
-        <v>6.329311381246405e-09</v>
+        <v>5.8705486210808e-08</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 35.22861249 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 27.46152158 y un valor p 0.00000006 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -5276,17 +5276,17 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>13.04633446312781</v>
+        <v>10.51672174518895</v>
       </c>
       <c r="J97" t="n">
-        <v>1.883069917839414e-07</v>
+        <v>1.174490170809229e-06</v>
       </c>
       <c r="K97" t="n">
-        <v>3.690817038965252e-05</v>
+        <v>0.0002337235439910366</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 13.04633446 y un valor p 0.00003691 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 10.51672175 y un valor p 0.00023372 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -5426,17 +5426,17 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 3 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -5676,17 +5676,17 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3.354101966249685</v>
+        <v>3.354101966249741</v>
       </c>
       <c r="J105" t="n">
-        <v>0.004234075201577111</v>
+        <v>0.004234075201576741</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5461957010034474</v>
+        <v>0.5927705282207437</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.35410197 y un valor p 0.5461957 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.35410197 y un valor p 0.59277053 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -5726,17 +5726,17 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.2630538976050359</v>
+        <v>-0.5568921801840779</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3992160424570522</v>
+        <v>0.7044108933619038</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.2630539 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.55689218 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -5776,17 +5776,17 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3.005987902906064</v>
+        <v>2.77156170151361</v>
       </c>
       <c r="J107" t="n">
-        <v>0.007405933215148247</v>
+        <v>0.01084901703624857</v>
       </c>
       <c r="K107" t="n">
-        <v>0.9257416518935309</v>
+        <v>1</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.0059879 y un valor p 0.92574165 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.7715617 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1.144262729154294</v>
+        <v>1.020478763537927</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1410170662647261</v>
+        <v>0.1670738615639637</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.14426273 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.02047876 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -5876,17 +5876,17 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>7.40506902388768</v>
+        <v>7.060083773316817</v>
       </c>
       <c r="J109" t="n">
-        <v>2.040715475865021e-05</v>
+        <v>2.960030404646989e-05</v>
       </c>
       <c r="K109" t="n">
-        <v>0.003591659237522437</v>
+        <v>0.00515045290408576</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.40506902 y un valor p 0.00359166 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.06008377 y un valor p 0.00515045 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -5926,17 +5926,17 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>-0.599670339704939</v>
+        <v>-0.1091934815181886</v>
       </c>
       <c r="J110" t="n">
-        <v>0.7182418122694126</v>
+        <v>0.5422775502164789</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.59967034 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.10919348 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -5976,17 +5976,17 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>4.686213261197506</v>
+        <v>4.758176297807113</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0005710746967942409</v>
+        <v>0.0005161512274858607</v>
       </c>
       <c r="K111" t="n">
-        <v>0.08394798042875341</v>
+        <v>0.08108419003217382</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.68621326 y un valor p 0.08394798 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.7581763 y un valor p 0.08108419 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -6026,17 +6026,17 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>9.081155576660466</v>
+        <v>7.094541049109492</v>
       </c>
       <c r="J112" t="n">
-        <v>3.966524464330388e-06</v>
+        <v>2.850410786404773e-05</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0007179409280438003</v>
+        <v>0.004988218876208353</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 9.08115558 y un valor p 0.00071794 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.09454105 y un valor p 0.00498822 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -6076,17 +6076,17 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>-1.562108123711958</v>
+        <v>-0.3795698860783387</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9236511516742125</v>
+        <v>0.643467014066196</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico -1.56210812 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico -0.37956989 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -6126,17 +6126,17 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1.510887292534586</v>
+        <v>2.260779256757954</v>
       </c>
       <c r="J114" t="n">
-        <v>0.08255100856492532</v>
+        <v>0.02505636581321011</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.51088729 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 2.26077926 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -6182,11 +6182,11 @@
         <v>0.007497256457205301</v>
       </c>
       <c r="K115" t="n">
-        <v>0.9289010100125272</v>
+        <v>1</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.99842905 y un valor p 0.92890101 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.99842905 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6226,17 +6226,17 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2.99893257424125</v>
+        <v>6</v>
       </c>
       <c r="J116" t="n">
-        <v>0.00749113717752038</v>
+        <v>0.125</v>
       </c>
       <c r="K116" t="n">
-        <v>0.9289010100125272</v>
+        <v>1</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.99893257 y un valor p 0.92890101 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -6276,17 +6276,17 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1.012863446745554</v>
+        <v>0.4450123667345049</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1687897272589065</v>
+        <v>0.3334105009735325</v>
       </c>
       <c r="K117" t="n">
         <v>1</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 1.01286345 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 0.44501237 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -6326,17 +6326,17 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>-0.317999364001908</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.6211299636135225</v>
+        <v>0.5</v>
       </c>
       <c r="K118" t="n">
         <v>1</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.31799936 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6426,17 +6426,17 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>7.297963686714445</v>
+        <v>2.351513709238939</v>
       </c>
       <c r="J120" t="n">
-        <v>2.287293357167392e-05</v>
+        <v>0.02159891424560365</v>
       </c>
       <c r="K120" t="n">
-        <v>0.003979890441471261</v>
+        <v>1</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.29796369 y un valor p 0.00397989 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.35151371 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6626,17 +6626,17 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1.817304220823594</v>
+        <v>6</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0512703650193605</v>
+        <v>0.125</v>
       </c>
       <c r="K124" t="n">
         <v>1</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.81730422 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6726,17 +6726,17 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.5148379867247826</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3095353858160657</v>
+        <v>0.5</v>
       </c>
       <c r="K126" t="n">
         <v>1</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.51483799 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 2 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>-1.000124079471856</v>
+        <v>-1.000124079471797</v>
       </c>
       <c r="J127" t="n">
-        <v>0.8283102305876207</v>
+        <v>0.8283102305876071</v>
       </c>
       <c r="K127" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6826,17 +6826,17 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>6.531779507761756</v>
+        <v>2.967961205582866</v>
       </c>
       <c r="J128" t="n">
-        <v>5.370680684891514e-05</v>
+        <v>0.007877247005629929</v>
       </c>
       <c r="K128" t="n">
-        <v>0.009022743550617744</v>
+        <v>1</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6.53177951 y un valor p 0.00902274 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.96796121 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6976,17 +6976,17 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1.819909519044108</v>
+        <v>6</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05105895692343226</v>
+        <v>0.125</v>
       </c>
       <c r="K131" t="n">
         <v>1</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 1.81990952 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 0 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>No se realizó la prueba para diferencia de medias debido a que las diferencias entre los pares tienen varianza 0.</t>
         </is>
       </c>
     </row>
@@ -7126,17 +7126,17 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1.176839464606851</v>
+        <v>-2.423838595714877</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1347226636732313</v>
+        <v>0.9808158364208998</v>
       </c>
       <c r="K134" t="n">
         <v>1</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.17683946 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.4238386 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -7176,17 +7176,17 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>4.742355922764756</v>
+        <v>2.908179940957013</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0005277198084659346</v>
+        <v>0.008681305185535266</v>
       </c>
       <c r="K135" t="n">
-        <v>0.07968569107835612</v>
+        <v>1</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.74235592 y un valor p 0.07968569 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.90817994 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -7226,17 +7226,17 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>37.00775202380055</v>
+        <v>30.3543781111214</v>
       </c>
       <c r="J136" t="n">
-        <v>1.903570783373832e-11</v>
+        <v>1.118349730240593e-10</v>
       </c>
       <c r="K136" t="n">
-        <v>4.187855723422429e-09</v>
+        <v>2.460369406529305e-08</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 37.00775202 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 30.35437811 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -7276,17 +7276,17 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>13.93874460341496</v>
+        <v>12.65717793520203</v>
       </c>
       <c r="J137" t="n">
-        <v>1.065005013686381e-07</v>
+        <v>2.441544078159769e-07</v>
       </c>
       <c r="K137" t="n">
-        <v>2.193910328193944e-05</v>
+        <v>5.078411682572319e-05</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 13.9387446 y un valor p 0.00002194 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 12.65717794 y un valor p 0.00005078 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -7326,17 +7326,17 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1.176653300619613</v>
+        <v>-2.821309581547531</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1347579821969035</v>
+        <v>0.989997904398384</v>
       </c>
       <c r="K138" t="n">
         <v>1</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.1766533 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.82130958 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -7376,17 +7376,17 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>4.729113185488711</v>
+        <v>2.90075779461258</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0005376176742073355</v>
+        <v>0.008786838323256567</v>
       </c>
       <c r="K139" t="n">
-        <v>0.08016592536495011</v>
+        <v>1</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.72911319 y un valor p 0.08016593 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.90075779 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -7426,17 +7426,17 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>36.26225590756343</v>
+        <v>29.93499946569165</v>
       </c>
       <c r="J140" t="n">
-        <v>2.283643041664755e-11</v>
+        <v>1.266110118759369e-10</v>
       </c>
       <c r="K140" t="n">
-        <v>4.932668969995871e-09</v>
+        <v>2.747458957707832e-08</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 36.26225591 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 29.93499947 y un valor p 0.00000003 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -7476,17 +7476,17 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>13.9073136446483</v>
+        <v>12.63520161963283</v>
       </c>
       <c r="J141" t="n">
-        <v>1.085973506599378e-07</v>
+        <v>2.478150696020465e-07</v>
       </c>
       <c r="K141" t="n">
-        <v>2.212391679114365e-05</v>
+        <v>5.105359499776131e-05</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 13.90731364 y un valor p 0.00002212 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 12.63520162 y un valor p 0.00005105 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -7526,17 +7526,17 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>-2.675587103708094</v>
+        <v>-3.120657954687158</v>
       </c>
       <c r="J142" t="n">
-        <v>0.9873055171174376</v>
+        <v>0.9938472155544043</v>
       </c>
       <c r="K142" t="n">
         <v>1</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -2.6755871 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -3.12065795 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -7576,17 +7576,17 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.1289228714710712</v>
+        <v>0.4076287542149064</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4501268959548888</v>
+        <v>0.3465360197527881</v>
       </c>
       <c r="K143" t="n">
         <v>1</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.12892287 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.40762875 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -7613,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7626,17 +7626,17 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>7.198245978607296</v>
+        <v>4.765479027159842</v>
       </c>
       <c r="J144" t="n">
-        <v>2.546421205249725e-05</v>
+        <v>0.0005109033031942639</v>
       </c>
       <c r="K144" t="n">
-        <v>0.004405308685082025</v>
+        <v>0.08108419003217382</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.19824598 y un valor p 0.00440531 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 4.76547903 y un valor p 0.08108419 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -7676,17 +7676,17 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>5.692990624601548</v>
+        <v>6.432912538145993</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0001484668245403689</v>
+        <v>6.02638155953418e-05</v>
       </c>
       <c r="K145" t="n">
-        <v>0.02360622510191865</v>
+        <v>0.01030511246680345</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 5.69299062 y un valor p 0.02360623 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6.43291254 y un valor p 0.01030511 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -7726,17 +7726,17 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>-0.0003985223997123528</v>
+        <v>0.3604095006612028</v>
       </c>
       <c r="J146" t="n">
-        <v>0.5001546405985076</v>
+        <v>0.3634272684511339</v>
       </c>
       <c r="K146" t="n">
         <v>1</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.00039852 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.3604095 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>-1.000233606614986</v>
+        <v>-1.000233606614933</v>
       </c>
       <c r="J147" t="n">
-        <v>0.8283353221340783</v>
+        <v>0.8283353221340664</v>
       </c>
       <c r="K147" t="n">
         <v>1</v>
@@ -7826,17 +7826,17 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>3.281471990114404</v>
+        <v>3.353323199115919</v>
       </c>
       <c r="J148" t="n">
-        <v>0.004753448380323899</v>
+        <v>0.004239318999589753</v>
       </c>
       <c r="K148" t="n">
-        <v>0.6036879443011351</v>
+        <v>0.5927705282207437</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 3.28147199 y un valor p 0.60368794 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 3.3533232 y un valor p 0.59277053 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -7876,17 +7876,17 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>4.12887284876594</v>
+        <v>3.497902229350617</v>
       </c>
       <c r="J149" t="n">
-        <v>0.001281895950989167</v>
+        <v>0.003372870008458328</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1767365503573859</v>
+        <v>0.4822547291703821</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.12887285 y un valor p 0.17673655 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.49790223 y un valor p 0.48225473 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -7926,17 +7926,17 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>-0.2558717157218126</v>
+        <v>-0.602606147939867</v>
       </c>
       <c r="J150" t="n">
-        <v>0.5980989601723946</v>
+        <v>0.7191774646755233</v>
       </c>
       <c r="K150" t="n">
         <v>1</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.25587172 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.60260615 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -7976,17 +7976,17 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>4.354636466801199</v>
+        <v>4.674892906723018</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0009188909926441312</v>
+        <v>0.0005802712310148913</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1295636299628225</v>
+        <v>0.08936176957629326</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.35463647 y un valor p 0.12956363 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.67489291 y un valor p 0.08936177 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -8026,17 +8026,17 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>19.00241040635045</v>
+        <v>8.109846385794484</v>
       </c>
       <c r="J152" t="n">
-        <v>7.125505585486486e-09</v>
+        <v>9.923308339251129e-06</v>
       </c>
       <c r="K152" t="n">
-        <v>1.503481678537649e-06</v>
+        <v>0.001835812042761459</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 19.00241041 y un valor p 0.0000015 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.10984639 y un valor p 0.00183581 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -8076,17 +8076,17 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>10.52109274342131</v>
+        <v>9.471854519405092</v>
       </c>
       <c r="J153" t="n">
-        <v>1.170405587435889e-06</v>
+        <v>2.805213227908071e-06</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0002165250336756395</v>
+        <v>0.0005498217926699819</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 10.52109274 y un valor p 0.00021653 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 9.47185452 y un valor p 0.00054982 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -8126,17 +8126,17 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>-0.2149684765676714</v>
+        <v>-0.3316405523231892</v>
       </c>
       <c r="J154" t="n">
-        <v>0.5827079739141519</v>
+        <v>0.6261235373041452</v>
       </c>
       <c r="K154" t="n">
         <v>1</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.21496848 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.33164055 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -8176,17 +8176,17 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>3.885023145723485</v>
+        <v>4.350012650470184</v>
       </c>
       <c r="J155" t="n">
-        <v>0.001851467625153206</v>
+        <v>0.000925110282650605</v>
       </c>
       <c r="K155" t="n">
-        <v>0.251799597020836</v>
+        <v>0.1396916526802414</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.88502315 y un valor p 0.2517996 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.35001265 y un valor p 0.13969165 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -8226,17 +8226,17 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>11.25400680506502</v>
+        <v>8.798851354204924</v>
       </c>
       <c r="J156" t="n">
-        <v>6.638208107561618e-07</v>
+        <v>5.134141634423057e-06</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0001241344916114022</v>
+        <v>0.0009652186272715347</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 11.25400681 y un valor p 0.00012413 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.79885135 y un valor p 0.00096522 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -8276,17 +8276,17 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>7.896695135022238</v>
+        <v>7.531906444261885</v>
       </c>
       <c r="J157" t="n">
-        <v>1.22765786300703e-05</v>
+        <v>1.785679122508088e-05</v>
       </c>
       <c r="K157" t="n">
-        <v>0.002197507574782584</v>
+        <v>0.003178508838064397</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.89669514 y un valor p 0.00219751 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.53190644 y un valor p 0.00317851 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -8326,17 +8326,17 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.8528138650819161</v>
+        <v>0.4237885293777097</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2079402446202789</v>
+        <v>0.3408343532313042</v>
       </c>
       <c r="K158" t="n">
         <v>1</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.85281387 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.42378853 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -8376,17 +8376,17 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>13.19782970744024</v>
+        <v>10.10158071214139</v>
       </c>
       <c r="J159" t="n">
-        <v>1.705216913037817e-07</v>
+        <v>1.644661826199056e-06</v>
       </c>
       <c r="K159" t="n">
-        <v>3.376329487814878e-05</v>
+        <v>0.0003256430415874131</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 13.19782971 y un valor p 0.00003376 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 10.10158071 y un valor p 0.00032564 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -8426,17 +8426,17 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>7.154967733946608</v>
+        <v>8.026563805698149</v>
       </c>
       <c r="J160" t="n">
-        <v>2.668740631860548e-05</v>
+        <v>1.077803505951104e-05</v>
       </c>
       <c r="K160" t="n">
-        <v>0.004590233886800143</v>
+        <v>0.001972380415890521</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.15496773 y un valor p 0.00459023 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.02656381 y un valor p 0.00197238 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -8476,17 +8476,17 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>4.775782277711857</v>
+        <v>3.919114828513583</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0005035963926000089</v>
+        <v>0.001757847924235947</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07654665167520135</v>
+        <v>0.2601614927869202</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.77578228 y un valor p 0.07654665 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.91911483 y un valor p 0.26016149 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -8526,17 +8526,17 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>-1.33481396222418</v>
+        <v>-1.38148776853682</v>
       </c>
       <c r="J162" t="n">
-        <v>0.8926409397270897</v>
+        <v>0.8997716364302479</v>
       </c>
       <c r="K162" t="n">
         <v>1</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -1.33481396 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -1.38148777 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -8576,17 +8576,17 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2.262601160971152</v>
+        <v>2.547282401714509</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02498186392264596</v>
+        <v>0.01566707237025419</v>
       </c>
       <c r="K163" t="n">
         <v>1</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.26260116 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.5472824 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -8626,17 +8626,17 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>11.76462720213168</v>
+        <v>7.487592671416754</v>
       </c>
       <c r="J164" t="n">
-        <v>4.556797069609178e-07</v>
+        <v>1.870578734586891e-05</v>
       </c>
       <c r="K164" t="n">
-        <v>8.794618344345714e-05</v>
+        <v>0.003310924360218798</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 11.7646272 y un valor p 0.00008795 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.48759267 y un valor p 0.00331092 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8676,17 +8676,17 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>6.325035821718853</v>
+        <v>4.766795369066333</v>
       </c>
       <c r="J165" t="n">
-        <v>6.84293156876255e-05</v>
+        <v>0.0005099634593218479</v>
       </c>
       <c r="K165" t="n">
-        <v>0.01129083708845821</v>
+        <v>0.08108419003217382</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6.32503582 y un valor p 0.01129084 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.76679537 y un valor p 0.08108419 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -8826,17 +8826,17 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>1.911804827097648</v>
+        <v>2.337357209598111</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04410321582297265</v>
+        <v>0.02210561393677655</v>
       </c>
       <c r="K168" t="n">
         <v>1</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.91180483 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.33735721 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8876,17 +8876,17 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>2.217824610125791</v>
+        <v>6</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02687727412912429</v>
+        <v>0.125</v>
       </c>
       <c r="K169" t="n">
         <v>1</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 2.21782461 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8926,17 +8926,17 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>12</v>
+        <v>-0.2295331673815817</v>
       </c>
       <c r="J170" t="n">
-        <v>0.15625</v>
+        <v>0.5882069625431077</v>
       </c>
       <c r="K170" t="n">
         <v>1</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 12 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.22953317 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -8976,17 +8976,17 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1.584734171415851</v>
+        <v>0.5222371483347253</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07374378898258262</v>
+        <v>0.3070572301665909</v>
       </c>
       <c r="K171" t="n">
         <v>1</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 1.58473417 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 0.52223715 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -9026,17 +9026,17 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>34.88799414261941</v>
+        <v>23.57037997133544</v>
       </c>
       <c r="J172" t="n">
-        <v>3.226023534715469e-11</v>
+        <v>1.061665006737583e-09</v>
       </c>
       <c r="K172" t="n">
-        <v>6.871430128943949e-09</v>
+        <v>2.271963114418428e-07</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.88799414 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 23.57037997 y un valor p 0.00000023 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -9076,10 +9076,10 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.9369276761316758</v>
+        <v>0.9369276761316353</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1866273795635127</v>
+        <v>0.1866273795635226</v>
       </c>
       <c r="K173" t="n">
         <v>1</v>
@@ -9176,10 +9176,10 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1.98095455599538</v>
+        <v>1.980954555995381</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03946910278535919</v>
+        <v>0.03946910278535907</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9226,17 +9226,17 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1.893179465933542</v>
+        <v>6</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04543671736092768</v>
+        <v>0.125</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.89317947 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -9326,17 +9326,17 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J178" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K178" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -9376,17 +9376,17 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J179" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K179" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -9426,17 +9426,17 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J180" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K180" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -9476,17 +9476,17 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J181" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K181" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -9526,17 +9526,17 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J182" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K182" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -9576,17 +9576,17 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J183" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K183" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -9626,17 +9626,17 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J184" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K184" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -9676,17 +9676,17 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J185" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K185" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -9726,17 +9726,17 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J186" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K186" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -9776,17 +9776,17 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J187" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K187" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -9826,17 +9826,17 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J188" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K188" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -9876,17 +9876,17 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J189" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K189" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -9926,17 +9926,17 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J190" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K190" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -9976,17 +9976,17 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J191" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K191" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -10026,17 +10026,17 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J192" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K192" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -10076,17 +10076,17 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J193" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K193" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -10126,17 +10126,17 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J194" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K194" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -10176,17 +10176,17 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J195" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K195" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -10226,17 +10226,17 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J196" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K196" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -10276,17 +10276,17 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J197" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K197" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -10326,17 +10326,17 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J198" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K198" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -10376,17 +10376,17 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J199" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K199" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -10426,17 +10426,17 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J200" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K200" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -10476,17 +10476,17 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J201" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K201" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -10526,17 +10526,17 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J202" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K202" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -10576,17 +10576,17 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J203" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K203" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -10626,17 +10626,17 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J204" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K204" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -10676,17 +10676,17 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J205" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K205" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -10726,17 +10726,17 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J206" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K206" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -10776,17 +10776,17 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J207" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K207" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -10826,17 +10826,17 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J208" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K208" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -10876,17 +10876,17 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J209" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K209" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -10926,17 +10926,17 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J210" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K210" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -10976,17 +10976,17 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J211" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K211" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -11026,17 +11026,17 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J212" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K212" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -11076,17 +11076,17 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J213" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K213" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -11126,17 +11126,17 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J214" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K214" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -11176,17 +11176,17 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J215" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K215" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -11226,17 +11226,17 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J216" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K216" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -11276,17 +11276,17 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J217" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K217" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -11326,17 +11326,17 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>59.00917557034682</v>
+        <v>31.2700983293671</v>
       </c>
       <c r="J218" t="n">
-        <v>2.903880186606185e-13</v>
+        <v>8.57825034711174e-11</v>
       </c>
       <c r="K218" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>1.981575830182812e-08</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 59.00917557 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 31.27009833 y un valor p 0.00000002 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -11376,17 +11376,17 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>59.2625922402609</v>
+        <v>34.50218957996511</v>
       </c>
       <c r="J219" t="n">
-        <v>2.794267040421658e-13</v>
+        <v>3.563184803094229e-11</v>
       </c>
       <c r="K219" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.0148575518284e-09</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 59.26259224 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 34.50218958 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -11426,17 +11426,17 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>59.24346232051732</v>
+        <v>34.31403772593134</v>
       </c>
       <c r="J220" t="n">
-        <v>2.802379115624979e-13</v>
+        <v>3.741667842708894e-11</v>
       </c>
       <c r="K220" t="n">
-        <v>7.376864986713177e-11</v>
+        <v>9.054836179355522e-09</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 59.24346232 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 34.31403773 y un valor p 0.00000001 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -11476,17 +11476,17 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>46.68565970739752</v>
+        <v>112.656830523065</v>
       </c>
       <c r="J221" t="n">
-        <v>2.376117349670132e-12</v>
+        <v>8.684876175437936e-16</v>
       </c>
       <c r="K221" t="n">
-        <v>5.488831077738004e-10</v>
+        <v>2.292807310315615e-13</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 46.68565971 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 112.65683052 y un valor p 0 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11526,17 +11526,17 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1.662686864155296</v>
+        <v>22</v>
       </c>
       <c r="J222" t="n">
-        <v>0.06536894111549407</v>
+        <v>0.7216796875</v>
       </c>
       <c r="K222" t="n">
         <v>1</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.66268686 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 22 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -11576,17 +11576,17 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>13.56410152222344</v>
+        <v>12.57458529487237</v>
       </c>
       <c r="J223" t="n">
-        <v>1.347233481578013e-07</v>
+        <v>2.582304700200357e-07</v>
       </c>
       <c r="K223" t="n">
-        <v>2.721411632787586e-05</v>
+        <v>5.267901588408729e-05</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 13.56410152 y un valor p 0.00002721 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 12.57458529 y un valor p 0.00005268 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -11626,17 +11626,17 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>13.47678286256391</v>
+        <v>14.1385806277961</v>
       </c>
       <c r="J224" t="n">
-        <v>1.42432307970818e-07</v>
+        <v>9.417221938282863e-08</v>
       </c>
       <c r="K224" t="n">
-        <v>2.84864615941636e-05</v>
+        <v>1.968199385101118e-05</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 13.47678286 y un valor p 0.00002849 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 14.13858063 y un valor p 0.00001968 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -11676,17 +11676,17 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>11.69934478218916</v>
+        <v>8.49043798229458</v>
       </c>
       <c r="J225" t="n">
-        <v>4.777434291300595e-07</v>
+        <v>6.859222333753779e-06</v>
       </c>
       <c r="K225" t="n">
-        <v>9.172673839297142e-05</v>
+        <v>0.001275815354078203</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 11.69934478 y un valor p 0.00009173 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 8.49043798 y un valor p 0.00127582 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -11726,17 +11726,17 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>1.662686864155296</v>
+        <v>0.1744204119659139</v>
       </c>
       <c r="J226" t="n">
-        <v>0.06536894111549407</v>
+        <v>0.4326977862031779</v>
       </c>
       <c r="K226" t="n">
         <v>1</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.66268686 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.17442041 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -11776,17 +11776,17 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>13.56410152222344</v>
+        <v>11.5885951797336</v>
       </c>
       <c r="J227" t="n">
-        <v>1.347233481578013e-07</v>
+        <v>5.179235480664716e-07</v>
       </c>
       <c r="K227" t="n">
-        <v>2.721411632787586e-05</v>
+        <v>0.0001046205567094273</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 13.56410152 y un valor p 0.00002721 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 11.58859518 y un valor p 0.00010462 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -11826,17 +11826,17 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>13.47678286256391</v>
+        <v>9.257071634171741</v>
       </c>
       <c r="J228" t="n">
-        <v>1.42432307970818e-07</v>
+        <v>3.388600750385979e-06</v>
       </c>
       <c r="K228" t="n">
-        <v>2.84864615941636e-05</v>
+        <v>0.000653999944824494</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 13.47678286 y un valor p 0.00002849 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 9.25707163 y un valor p 0.000654 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -11876,17 +11876,17 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>11.69934478218916</v>
+        <v>10.77280770272534</v>
       </c>
       <c r="J229" t="n">
-        <v>4.777434291300595e-07</v>
+        <v>9.596464626437595e-07</v>
       </c>
       <c r="K229" t="n">
-        <v>9.172673839297142e-05</v>
+        <v>0.0001928889389913957</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 11.69934478 y un valor p 0.00009173 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 10.7728077 y un valor p 0.00019289 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -11976,17 +11976,17 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>3.398967234547378</v>
+        <v>3.398938382666675</v>
       </c>
       <c r="J231" t="n">
-        <v>0.003943110899788231</v>
+        <v>0.003943291157568768</v>
       </c>
       <c r="K231" t="n">
-        <v>0.5126044169724701</v>
+        <v>0.5560040532171963</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.39896723 y un valor p 0.51260442 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 3.39893838 y un valor p 0.55600405 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -12026,17 +12026,17 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2.107452429949475</v>
+        <v>2.609577692903028</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03216766570200875</v>
+        <v>0.01414517128062588</v>
       </c>
       <c r="K232" t="n">
         <v>1</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.10745243 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.60957769 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -12076,17 +12076,17 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>4.560464949314685</v>
+        <v>4.894219019004441</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0006826803735272808</v>
+        <v>0.0004272177365258343</v>
       </c>
       <c r="K233" t="n">
-        <v>0.09762329341440115</v>
+        <v>0.06878205558065932</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.56046495 y un valor p 0.09762329 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.89421902 y un valor p 0.06878206 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -12226,17 +12226,17 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>2.715379064442542</v>
+        <v>28</v>
       </c>
       <c r="J236" t="n">
-        <v>0.011893540697226</v>
+        <v>0.0078125</v>
       </c>
       <c r="K236" t="n">
         <v>1</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.71537906 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 28 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -12276,17 +12276,17 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>3.311047477945583</v>
+        <v>3.310147729100748</v>
       </c>
       <c r="J237" t="n">
-        <v>0.004534379412130931</v>
+        <v>0.004540886637575104</v>
       </c>
       <c r="K237" t="n">
-        <v>0.5804005647527591</v>
+        <v>0.6221014693477892</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.31104748 y un valor p 0.58040056 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 3.31014773 y un valor p 0.62210147 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -12326,17 +12326,17 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>0.4316781980085607</v>
+        <v>-0.08595414281568858</v>
       </c>
       <c r="J238" t="n">
-        <v>0.3380659541410491</v>
+        <v>0.5333076424726512</v>
       </c>
       <c r="K238" t="n">
         <v>1</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.4316782 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -0.08595414 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -12376,17 +12376,17 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>5.93597565405168</v>
+        <v>6.023017666482001</v>
       </c>
       <c r="J239" t="n">
-        <v>0.000109549605751271</v>
+        <v>9.843491064656281e-05</v>
       </c>
       <c r="K239" t="n">
-        <v>0.0177470361317059</v>
+        <v>0.01634019516732943</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 5.93597565 y un valor p 0.01774704 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 6.02301767 y un valor p 0.0163402 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -12426,17 +12426,17 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>10.51832607724564</v>
+        <v>8.99202015896727</v>
       </c>
       <c r="J240" t="n">
-        <v>1.172989140891616e-06</v>
+        <v>4.30011408530959e-06</v>
       </c>
       <c r="K240" t="n">
-        <v>0.0002165250336756395</v>
+        <v>0.0008213217902941318</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 10.51832608 y un valor p 0.00021653 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 8.99202016 y un valor p 0.00082132 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -12476,17 +12476,17 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>14.03226907808933</v>
+        <v>14.48374221775521</v>
       </c>
       <c r="J241" t="n">
-        <v>1.005216066311547e-07</v>
+        <v>7.642908176343271e-08</v>
       </c>
       <c r="K241" t="n">
-        <v>2.080797257264903e-05</v>
+        <v>1.605010717032087e-05</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 14.03226908 y un valor p 0.00002081 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 14.48374222 y un valor p 0.00001605 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -12526,17 +12526,17 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0.1703399801954775</v>
+        <v>1.839329637709782</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4342552535336702</v>
+        <v>0.04950853060411812</v>
       </c>
       <c r="K242" t="n">
         <v>1</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.17033998 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.83932964 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -12576,17 +12576,17 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>5.796169441800044</v>
+        <v>5.850755075862721</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0001303616104113369</v>
+        <v>0.0001217647783126181</v>
       </c>
       <c r="K243" t="n">
-        <v>0.02085785766581391</v>
+        <v>0.02009118842158199</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 5.79616944 y un valor p 0.02085786 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 5.85075508 y un valor p 0.02009119 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12626,17 +12626,17 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>55</v>
+        <v>2.351099658507149</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0009765625</v>
+        <v>0.02161357011645572</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1357421875</v>
+        <v>1</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 55 y un valor p 0.13574219 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.35109966 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -12676,17 +12676,17 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>11.66147067874277</v>
+        <v>12.26486481980533</v>
       </c>
       <c r="J245" t="n">
-        <v>4.910831042950659e-07</v>
+        <v>3.195914223354062e-07</v>
       </c>
       <c r="K245" t="n">
-        <v>9.281470671176746e-05</v>
+        <v>6.487705873408745e-05</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 11.66147068 y un valor p 0.00009281 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 12.26486482 y un valor p 0.00006488 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -12726,17 +12726,17 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>0.53807688800241</v>
+        <v>1.274680387723262</v>
       </c>
       <c r="J246" t="n">
-        <v>0.3017868874563099</v>
+        <v>0.117173309433218</v>
       </c>
       <c r="K246" t="n">
         <v>1</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.53807689 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 1.27468039 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -12776,17 +12776,17 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>6.404442972273704</v>
+        <v>6.444002471843587</v>
       </c>
       <c r="J247" t="n">
-        <v>6.231024311419901e-05</v>
+        <v>5.948658553034943e-05</v>
       </c>
       <c r="K247" t="n">
-        <v>0.01034350035695704</v>
+        <v>0.0102316927112201</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 6.40444297 y un valor p 0.0103435 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 6.44400247 y un valor p 0.01023169 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -12826,17 +12826,17 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>2.917859581329323</v>
+        <v>1.956050251061104</v>
       </c>
       <c r="J248" t="n">
-        <v>0.008545619478986391</v>
+        <v>0.04108213877888577</v>
       </c>
       <c r="K248" t="n">
         <v>1</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 2.91785958 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.95605025 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12876,17 +12876,17 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>4.898547175956734</v>
+        <v>5.172207408314655</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0004246738859081683</v>
+        <v>0.0002927146346908191</v>
       </c>
       <c r="K249" t="n">
-        <v>0.06497510454394975</v>
+        <v>0.04771248545460352</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 4.89854718 y un valor p 0.0649751 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 5.17220741 y un valor p 0.04771249 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -12926,17 +12926,17 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>-1.316552425445408</v>
       </c>
       <c r="J250" t="n">
-        <v>0.90625</v>
+        <v>0.8897363672748153</v>
       </c>
       <c r="K250" t="n">
         <v>1</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 3 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico -1.31655243 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -12976,17 +12976,17 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>4.360706455320555</v>
+        <v>4.39088580543361</v>
       </c>
       <c r="J251" t="n">
-        <v>0.000910794206161892</v>
+        <v>0.0008716534734834066</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1293327772749887</v>
+        <v>0.1324913279694778</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.36070646 y un valor p 0.12933278 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 4.39088581 y un valor p 0.13249133 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -13026,17 +13026,17 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>10.99155696931503</v>
+        <v>7.843968486927804</v>
       </c>
       <c r="J252" t="n">
-        <v>8.101952264264768e-07</v>
+        <v>1.294902835116034e-05</v>
       </c>
       <c r="K252" t="n">
-        <v>0.0001506963121153247</v>
+        <v>0.002356723159911181</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 10.99155697 y un valor p 0.0001507 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 7.84396849 y un valor p 0.00235672 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -13076,17 +13076,17 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>7.883285396899727</v>
+        <v>7.470353272637247</v>
       </c>
       <c r="J253" t="n">
-        <v>1.244388955900264e-05</v>
+        <v>1.90479382890465e-05</v>
       </c>
       <c r="K253" t="n">
-        <v>0.002203794879914882</v>
+        <v>0.003352437138872184</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.8832854 y un valor p 0.00220379 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 7.47035327 y un valor p 0.00335244 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -13226,17 +13226,17 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>1.929940349416799</v>
+        <v>6</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04284034334124617</v>
+        <v>0.125</v>
       </c>
       <c r="K256" t="n">
         <v>1</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 1.92994035 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 6 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -13276,17 +13276,17 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>2.681246880168159</v>
+        <v>2.212646098377696</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0125773151450036</v>
+        <v>0.02710535054059761</v>
       </c>
       <c r="K257" t="n">
         <v>1</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 2.68124688 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 2.2126461 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -13326,17 +13326,17 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J258" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K258" t="n">
         <v>1</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 9 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 3 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -13376,17 +13376,17 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>2.118075255297101</v>
+        <v>2.118215607820085</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03161749898546936</v>
+        <v>0.03161029121688363</v>
       </c>
       <c r="K259" t="n">
         <v>1</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.11807526 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Decision Tree, obteniéndose un estadístico 2.11821561 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Decision Tree.</t>
         </is>
       </c>
     </row>
@@ -13426,17 +13426,17 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>16.17957760367366</v>
+        <v>19.9370922841934</v>
       </c>
       <c r="J260" t="n">
-        <v>2.917874707192808e-08</v>
+        <v>4.66766179245656e-09</v>
       </c>
       <c r="K260" t="n">
-        <v>6.06917939096104e-06</v>
+        <v>9.848766382083342e-07</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 16.1795776 y un valor p 0.00000607 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 19.93709228 y un valor p 0.00000098 menor al nivel de significancia (0.05), por ello, no se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene mejores resultados que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>T de Student</t>
+          <t>Wilcoxon</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -13476,17 +13476,17 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>2.07563536861635</v>
+        <v>21</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03387134019784199</v>
+        <v>0.015625</v>
       </c>
       <c r="K261" t="n">
         <v>1</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 2.07563537 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 21 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Wilcoxon</t>
+          <t>T de Student</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -13526,17 +13526,17 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>14</v>
+        <v>0.8757812014961468</v>
       </c>
       <c r="J262" t="n">
-        <v>0.7109375</v>
+        <v>0.201958386864986</v>
       </c>
       <c r="K262" t="n">
         <v>1</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 14 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
+          <t>Se realizó la prueba de T de Student sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Random Forest, obteniéndose un estadístico 0.8757812 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Random Forest.</t>
         </is>
       </c>
     </row>
@@ -13576,10 +13576,10 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>2.726427132571992</v>
+        <v>2.726427132571983</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01168037481974768</v>
+        <v>0.01168037481974783</v>
       </c>
       <c r="K263" t="n">
         <v>1</v>
@@ -13626,17 +13626,17 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J264" t="n">
-        <v>0.984375</v>
+        <v>0.1875</v>
       </c>
       <c r="K264" t="n">
         <v>1</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 5 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo Multi Layer Perceptron, obteniéndose un estadístico 25 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo Multi Layer Perceptron.</t>
         </is>
       </c>
     </row>
@@ -13676,17 +13676,17 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J265" t="n">
-        <v>0.671875</v>
+        <v>0.5859375</v>
       </c>
       <c r="K265" t="n">
         <v>1</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 15 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
+          <t>Se realizó la prueba de Wilcoxon sobre las diferencias entre los pares del metamodelo de ensamble "Bagging" y el algoritmo K-Nearest Neighbor, obteniéndose un estadístico 13 y un valor p 1 mayor al nivel de significancia (0.05), por ello, se rechaza la hipótesis nula y se asume que el metamodelo de ensamble Bagging tiene resultados iguales o peores que el algoritmo K-Nearest Neighbor.</t>
         </is>
       </c>
     </row>
